--- a/ulva-assay/final_spreadsheets/ulva_assay_data_entry_spreadsheet_marinegeo.xlsx
+++ b/ulva-assay/final_spreadsheets/ulva_assay_data_entry_spreadsheet_marinegeo.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">number_deployed</t>
   </si>
   <si>
-    <t xml:space="preserve">Numer of squidpops deployed</t>
+    <t xml:space="preserve">Number of stakes deployed</t>
   </si>
   <si>
     <t xml:space="preserve">sample_data_notes</t>
